--- a/Word-Printer/samples/Level4/四层项目/XXX项目/09 ZRXX-20000-CH-P-01 变更管理程序记录/ZRXX-20000-CH-R-02 变更管理统计报表-XXX项目.xlsx
+++ b/Word-Printer/samples/Level4/四层项目/XXX项目/09 ZRXX-20000-CH-P-01 变更管理程序记录/ZRXX-20000-CH-R-02 变更管理统计报表-XXX项目.xlsx
@@ -1,18 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\WordPrinter\Word-Printer\samples\Level4\四层项目\XXX项目\09 ZRXX-20000-CH-P-01 变更管理程序记录\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19080" windowHeight="11020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19080" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="变更管理统计表" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">变更管理统计表!$A$1:$I$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">变更管理统计表!$A$1:$I$49</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -129,7 +134,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -659,6 +664,24 @@
     <xf numFmtId="176" fontId="16" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -695,15 +718,6 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -718,15 +732,6 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -755,12 +760,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -810,6 +818,11 @@
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-DEEA-46E7-B38E-E30A70F6ECA8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -822,6 +835,11 @@
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-DEEA-46E7-B38E-E30A70F6ECA8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -834,6 +852,11 @@
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-DEEA-46E7-B38E-E30A70F6ECA8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -846,6 +869,11 @@
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-DEEA-46E7-B38E-E30A70F6ECA8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -863,6 +891,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-DEEA-46E7-B38E-E30A70F6ECA8}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -879,6 +915,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-DEEA-46E7-B38E-E30A70F6ECA8}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -895,6 +939,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-DEEA-46E7-B38E-E30A70F6ECA8}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -911,6 +963,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-DEEA-46E7-B38E-E30A70F6ECA8}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:noFill/>
@@ -943,10 +1003,13 @@
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>变更管理统计表!$B$41:$C$44</c:f>
+              <c:f>变更管理统计表!$B$39:$C$42</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -966,7 +1029,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>变更管理统计表!$D$41:$D$44</c:f>
+              <c:f>变更管理统计表!$D$39:$D$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -985,6 +1048,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-DEEA-46E7-B38E-E30A70F6ECA8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1008,10 +1076,20 @@
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-DEEA-46E7-B38E-E30A70F6ECA8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-DEEA-46E7-B38E-E30A70F6ECA8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1024,6 +1102,11 @@
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-DEEA-46E7-B38E-E30A70F6ECA8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1036,10 +1119,15 @@
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-DEEA-46E7-B38E-E30A70F6ECA8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>变更管理统计表!$B$41:$C$44</c:f>
+              <c:f>变更管理统计表!$B$39:$C$42</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1059,13 +1147,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>变更管理统计表!$E$41:$E$44</c:f>
+              <c:f>变更管理统计表!$E$39:$E$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-DEEA-46E7-B38E-E30A70F6ECA8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1163,7 +1256,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1205,6 +1298,11 @@
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-235B-42DB-AEB4-051101BA9597}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1217,6 +1315,11 @@
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-235B-42DB-AEB4-051101BA9597}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1229,6 +1332,11 @@
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-235B-42DB-AEB4-051101BA9597}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1241,6 +1349,11 @@
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-235B-42DB-AEB4-051101BA9597}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -1258,6 +1371,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-235B-42DB-AEB4-051101BA9597}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -1274,6 +1395,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-235B-42DB-AEB4-051101BA9597}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -1290,6 +1419,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-235B-42DB-AEB4-051101BA9597}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -1306,6 +1443,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-235B-42DB-AEB4-051101BA9597}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:noFill/>
@@ -1338,10 +1483,13 @@
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>变更管理统计表!$B$18:$B$21</c:f>
+              <c:f>变更管理统计表!$B$16:$B$19</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1361,7 +1509,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>变更管理统计表!$D$18:$D$21</c:f>
+              <c:f>变更管理统计表!$D$16:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1380,6 +1528,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-235B-42DB-AEB4-051101BA9597}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1403,10 +1556,20 @@
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-235B-42DB-AEB4-051101BA9597}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-235B-42DB-AEB4-051101BA9597}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1419,6 +1582,11 @@
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000C-235B-42DB-AEB4-051101BA9597}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1431,10 +1599,15 @@
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000E-235B-42DB-AEB4-051101BA9597}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>变更管理统计表!$B$18:$B$21</c:f>
+              <c:f>变更管理统计表!$B$16:$B$19</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1454,13 +1627,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>变更管理统计表!$E$18:$E$21</c:f>
+              <c:f>变更管理统计表!$E$16:$E$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-235B-42DB-AEB4-051101BA9597}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1563,13 +1741,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1595,13 +1773,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1669,7 +1847,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1704,7 +1882,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1913,75 +2091,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I51"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:I48"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.58203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="1.58203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="1.08203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="1.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="1.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="14.75" style="1" customWidth="1"/>
     <col min="9" max="9" width="0.25" style="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1" bestFit="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+    <row r="1" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-    </row>
-    <row r="3" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="34" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-    </row>
-    <row r="5" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="35" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2"/>
+      <c r="B3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="11"/>
-    </row>
-    <row r="6" spans="1:9" ht="14" x14ac:dyDescent="0.2">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="12"/>
+    </row>
+    <row r="6" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -1992,7 +2182,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:9" ht="14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -2003,7 +2193,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="1:9" ht="14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -2014,7 +2204,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:9" ht="14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -2025,7 +2215,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9" ht="14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -2036,7 +2226,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="12"/>
     </row>
-    <row r="11" spans="1:9" ht="14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -2047,7 +2237,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="12"/>
     </row>
-    <row r="12" spans="1:9" ht="14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -2058,7 +2248,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="12"/>
     </row>
-    <row r="13" spans="1:9" ht="14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -2069,7 +2259,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="1:9" ht="14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -2080,7 +2270,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="1:9" ht="14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -2091,140 +2281,140 @@
       <c r="H15" s="5"/>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="1:9" ht="14" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="6"/>
+      <c r="B16" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17">
+        <v>0</v>
+      </c>
+      <c r="E16" s="17"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
       <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="1:9" ht="14" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="6"/>
+      <c r="B17" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="18">
+        <v>2</v>
+      </c>
+      <c r="E17" s="18"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
       <c r="I17" s="12"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="18">
         <v>0</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="33">
-        <v>0</v>
-      </c>
-      <c r="E18" s="33"/>
+      <c r="E18" s="18"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="12"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
-      <c r="B19" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="27">
-        <v>2</v>
-      </c>
-      <c r="E19" s="27"/>
+      <c r="B19" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="18">
+        <v>0</v>
+      </c>
+      <c r="E19" s="18"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="12"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="18">
+        <f>D16+D17+D18+D19</f>
         <v>2</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="27">
-        <v>0</v>
-      </c>
-      <c r="E20" s="27"/>
+      <c r="E20" s="18"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="12"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="6"/>
-      <c r="B21" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="27">
-        <v>0</v>
-      </c>
-      <c r="E21" s="27"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="12"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
-      <c r="B22" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="27">
-        <f>D18+D19+D20+D21</f>
-        <v>2</v>
-      </c>
-      <c r="E22" s="27"/>
-      <c r="F22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="12"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
-      <c r="C24" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="12"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="6"/>
       <c r="B25" s="7"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="12"/>
     </row>
-    <row r="26" spans="1:9" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -2235,7 +2425,7 @@
       <c r="H26" s="7"/>
       <c r="I26" s="12"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -2246,7 +2436,7 @@
       <c r="H27" s="7"/>
       <c r="I27" s="12"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -2257,7 +2447,7 @@
       <c r="H28" s="7"/>
       <c r="I28" s="12"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -2268,7 +2458,7 @@
       <c r="H29" s="7"/>
       <c r="I29" s="12"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -2279,7 +2469,7 @@
       <c r="H30" s="7"/>
       <c r="I30" s="12"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -2290,7 +2480,7 @@
       <c r="H31" s="7"/>
       <c r="I31" s="12"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -2301,18 +2491,18 @@
       <c r="H32" s="7"/>
       <c r="I32" s="12"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="6"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A33" s="9"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="12"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -2323,40 +2513,40 @@
       <c r="H34" s="7"/>
       <c r="I34" s="12"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="9"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A35" s="6"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="12"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="6"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
+      <c r="E36" s="8"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
       <c r="I36" s="12"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="6"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
+      <c r="E37" s="8"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
       <c r="I37" s="12"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -2367,213 +2557,191 @@
       <c r="H38" s="7"/>
       <c r="I38" s="12"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="6"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="8"/>
+      <c r="B39" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="16"/>
+      <c r="D39" s="17">
+        <v>0</v>
+      </c>
+      <c r="E39" s="17"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
       <c r="I39" s="12"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" s="6"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="8"/>
+      <c r="B40" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="16"/>
+      <c r="D40" s="18">
+        <v>2</v>
+      </c>
+      <c r="E40" s="18"/>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
       <c r="I40" s="12"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" s="6"/>
-      <c r="B41" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="26"/>
-      <c r="D41" s="33">
+      <c r="B41" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="16"/>
+      <c r="D41" s="18">
         <v>0</v>
       </c>
-      <c r="E41" s="33"/>
+      <c r="E41" s="18"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
       <c r="I41" s="12"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" s="6"/>
-      <c r="B42" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="26"/>
-      <c r="D42" s="27">
-        <v>2</v>
-      </c>
-      <c r="E42" s="27"/>
+      <c r="B42" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="16"/>
+      <c r="D42" s="18">
+        <v>0</v>
+      </c>
+      <c r="E42" s="18"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
       <c r="I42" s="12"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" s="6"/>
-      <c r="B43" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="26"/>
-      <c r="D43" s="27">
-        <v>0</v>
-      </c>
-      <c r="E43" s="27"/>
+      <c r="B43" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="16"/>
+      <c r="D43" s="18">
+        <f>SUM(D39:E42)</f>
+        <v>2</v>
+      </c>
+      <c r="E43" s="18"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
       <c r="I43" s="12"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" s="6"/>
-      <c r="B44" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" s="26"/>
-      <c r="D44" s="27">
-        <v>0</v>
-      </c>
-      <c r="E44" s="27"/>
+      <c r="B44" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
       <c r="I44" s="12"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="6"/>
-      <c r="B45" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" s="26"/>
-      <c r="D45" s="27">
-        <f>SUM(D41:E44)</f>
-        <v>2</v>
-      </c>
-      <c r="E45" s="27"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="12"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="6"/>
-      <c r="B46" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="12"/>
-    </row>
-    <row r="47" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="13" t="s">
+    <row r="45" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="29"/>
-    </row>
-    <row r="48" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="30" t="s">
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="32"/>
+    </row>
+    <row r="46" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="31"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="31"/>
-      <c r="I48" s="32"/>
-    </row>
-    <row r="49" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="13" t="s">
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="35"/>
+    </row>
+    <row r="47" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="15"/>
-    </row>
-    <row r="50" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="16" t="s">
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="21"/>
+    </row>
+    <row r="48" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="18"/>
-    </row>
-    <row r="51" spans="1:9" ht="13" x14ac:dyDescent="0.2">
-      <c r="A51" s="19" t="s">
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="24"/>
+    </row>
+    <row r="49" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A49" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="21"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="A49:I49"/>
-    <mergeCell ref="A50:I50"/>
-    <mergeCell ref="A51:I51"/>
-    <mergeCell ref="A2:H3"/>
-    <mergeCell ref="C24:F25"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="A1:H1"/>
     <mergeCell ref="A47:I47"/>
     <mergeCell ref="A48:I48"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="A49:I49"/>
+    <mergeCell ref="C22:F23"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="A45:I45"/>
+    <mergeCell ref="A46:I46"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.19685039370078741" footer="0.39370078740157483"/>

--- a/Word-Printer/samples/Level4/四层项目/XXX项目/09 ZRXX-20000-CH-P-01 变更管理程序记录/ZRXX-20000-CH-R-02 变更管理统计报表-XXX项目.xlsx
+++ b/Word-Printer/samples/Level4/四层项目/XXX项目/09 ZRXX-20000-CH-P-01 变更管理程序记录/ZRXX-20000-CH-R-02 变更管理统计报表-XXX项目.xlsx
@@ -90,44 +90,28 @@
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
+    <t>变更结果统计</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     变更分类统计</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>报告期内</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>总共发生了</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF930000"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>变更数量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">个变更，都是一般变更，现变更已被关闭。
+      <t xml:space="preserve">总共发生了变更数量个变更，都是一般变更，现变更已被关闭。
 </t>
     </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>变更结果统计</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">     变更分类统计</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
 </sst>
@@ -301,13 +285,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="幼圆"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="幼圆"/>
@@ -316,7 +293,14 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF930000"/>
+      <name val="幼圆"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF930000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -664,73 +648,73 @@
     <xf numFmtId="176" fontId="16" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -756,6 +740,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF930000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2093,8 +2082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2113,38 +2102,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
-      <c r="B3" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
+      <c r="B3" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="11"/>
@@ -2283,14 +2272,14 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="17">
+      <c r="C16" s="26"/>
+      <c r="D16" s="30">
         <v>0</v>
       </c>
-      <c r="E16" s="17"/>
+      <c r="E16" s="30"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -2298,14 +2287,14 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="18">
+      <c r="C17" s="26"/>
+      <c r="D17" s="27">
         <v>2</v>
       </c>
-      <c r="E17" s="18"/>
+      <c r="E17" s="27"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -2313,14 +2302,14 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="18">
+      <c r="C18" s="26"/>
+      <c r="D18" s="27">
         <v>0</v>
       </c>
-      <c r="E18" s="18"/>
+      <c r="E18" s="27"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -2328,14 +2317,14 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="18">
+      <c r="C19" s="26"/>
+      <c r="D19" s="27">
         <v>0</v>
       </c>
-      <c r="E19" s="18"/>
+      <c r="E19" s="27"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -2343,15 +2332,15 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="18">
+      <c r="C20" s="26"/>
+      <c r="D20" s="27">
         <f>D16+D17+D18+D19</f>
         <v>2</v>
       </c>
-      <c r="E20" s="18"/>
+      <c r="E20" s="27"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -2371,12 +2360,12 @@
     <row r="22" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
+      <c r="C22" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="12"/>
@@ -2384,10 +2373,10 @@
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="12"/>
@@ -2559,14 +2548,14 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="6"/>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="16"/>
-      <c r="D39" s="17">
+      <c r="C39" s="26"/>
+      <c r="D39" s="30">
         <v>0</v>
       </c>
-      <c r="E39" s="17"/>
+      <c r="E39" s="30"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
@@ -2574,14 +2563,14 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" s="6"/>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="16"/>
-      <c r="D40" s="18">
+      <c r="C40" s="26"/>
+      <c r="D40" s="27">
         <v>2</v>
       </c>
-      <c r="E40" s="18"/>
+      <c r="E40" s="27"/>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
@@ -2589,14 +2578,14 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" s="6"/>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="16"/>
-      <c r="D41" s="18">
+      <c r="C41" s="26"/>
+      <c r="D41" s="27">
         <v>0</v>
       </c>
-      <c r="E41" s="18"/>
+      <c r="E41" s="27"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
@@ -2604,14 +2593,14 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" s="6"/>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="16"/>
-      <c r="D42" s="18">
+      <c r="C42" s="26"/>
+      <c r="D42" s="27">
         <v>0</v>
       </c>
-      <c r="E42" s="18"/>
+      <c r="E42" s="27"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
@@ -2619,15 +2608,15 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" s="6"/>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="16"/>
-      <c r="D43" s="18">
+      <c r="C43" s="26"/>
+      <c r="D43" s="27">
         <f>SUM(D39:E42)</f>
         <v>2</v>
       </c>
-      <c r="E43" s="18"/>
+      <c r="E43" s="27"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
@@ -2647,21 +2636,21 @@
       <c r="I44" s="12"/>
     </row>
     <row r="45" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B45" s="31"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="32"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="29"/>
     </row>
     <row r="46" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="33" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B46" s="34"/>
       <c r="C46" s="34"/>
@@ -2673,46 +2662,59 @@
       <c r="I46" s="35"/>
     </row>
     <row r="47" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="21"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="16"/>
     </row>
     <row r="48" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B48" s="23"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="24"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="19"/>
     </row>
     <row r="49" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B49" s="26"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="27"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A47:I47"/>
     <mergeCell ref="A48:I48"/>
@@ -2729,19 +2731,6 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.19685039370078741" footer="0.39370078740157483"/>
